--- a/instances/InstanceItalyV1.xlsx
+++ b/instances/InstanceItalyV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Employees"/>
@@ -300,7 +300,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +317,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -355,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -378,13 +384,25 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -691,16 +709,16 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -731,10 +749,10 @@
       <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -743,7 +761,7 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -754,10 +772,10 @@
       <c r="A3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -766,7 +784,7 @@
       <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -777,10 +795,10 @@
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -789,7 +807,7 @@
       <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -798,20 +816,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="4"/>
     </row>
   </sheetData>
@@ -883,7 +901,7 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -892,12 +910,12 @@
     <col min="3" max="3" style="2" width="12.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="11.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="2" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -949,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -975,7 +993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -1131,7 +1149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1183,7 +1201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1209,7 +1227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
@@ -1235,7 +1253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1261,7 +1279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -1365,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -1391,7 +1409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
